--- a/lab4/Чек-лист.xlsx
+++ b/lab4/Чек-лист.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testing labs\tests\lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A838319-F0A8-4E27-8053-5DAD6800194B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D62276-4EEF-437D-AF19-299C8273E07D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="0" windowWidth="22080" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="22080" windowHeight="12960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Легенда" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
   <si>
     <t>N/A</t>
   </si>
@@ -255,6 +255,75 @@
   </si>
   <si>
     <t>issue#1</t>
+  </si>
+  <si>
+    <t>1.1.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отображение таблицы с количеством записей превышающим область видимости страницы </t>
+  </si>
+  <si>
+    <t>issue#2</t>
+  </si>
+  <si>
+    <t>Отображение таблицы без сотрудников</t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+  </si>
+  <si>
+    <t>issue#3</t>
+  </si>
+  <si>
+    <t>Попытка ввести невалидные данные в поле "Имя"</t>
+  </si>
+  <si>
+    <t>Попытка ввести невалидные данные в поле "Фамилия"</t>
+  </si>
+  <si>
+    <t>Попытка ввести невалидные данные в поле "Отчество"</t>
+  </si>
+  <si>
+    <t>Попытка ввести невалидные данные в поле "Должность"</t>
+  </si>
+  <si>
+    <t>1.1.2.5</t>
+  </si>
+  <si>
+    <t>1.1.2.10</t>
+  </si>
+  <si>
+    <t>1.1.2.11</t>
+  </si>
+  <si>
+    <t>1.1.2.12</t>
+  </si>
+  <si>
+    <t>issue#4</t>
+  </si>
+  <si>
+    <t>1.1.3.9</t>
+  </si>
+  <si>
+    <t>1.1.3.10</t>
+  </si>
+  <si>
+    <t>1.1.3.11</t>
+  </si>
+  <si>
+    <t>1.1.3.12</t>
+  </si>
+  <si>
+    <t>1.1.1.7</t>
+  </si>
+  <si>
+    <t>Наличие необходимых столбцов в таблице</t>
+  </si>
+  <si>
+    <t>issue#5</t>
   </si>
 </sst>
 </file>
@@ -392,7 +461,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +526,12 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -641,7 +716,7 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -720,25 +795,46 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,15 +846,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -772,37 +880,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1178,7 +1259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC47700E-8E31-437C-9A12-0975020D27AE}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1194,128 +1275,128 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-    </row>
-    <row r="4" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="56"/>
     </row>
     <row r="8" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
     </row>
     <row r="14" spans="1:4" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-    </row>
-    <row r="15" spans="1:4" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
@@ -1330,21 +1411,27 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="35" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="37" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -1352,12 +1439,6 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1368,10 +1449,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1386,25 +1467,25 @@
       <c r="A1" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="46" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="13" t="s">
@@ -1418,7 +1499,7 @@
       <c r="A4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="30" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="19"/>
@@ -1436,21 +1517,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="38" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="31" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="24" t="s">
@@ -1460,9 +1541,9 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="24" t="s">
@@ -1472,9 +1553,9 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C9" s="24" t="s">
@@ -1483,57 +1564,57 @@
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="55"/>
+      <c r="A10" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>78</v>
+      </c>
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>60</v>
+        <v>81</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>60</v>
+        <v>96</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="25"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="A13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="33"/>
       <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>60</v>
@@ -1542,10 +1623,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>71</v>
+        <v>42</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>60</v>
@@ -1554,10 +1635,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>66</v>
       </c>
       <c r="C16" s="24" t="s">
         <v>60</v>
@@ -1566,10 +1647,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="53" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>60</v>
@@ -1578,10 +1659,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>71</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>60</v>
@@ -1589,33 +1670,35 @@
       <c r="D18" s="25"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="56"/>
+      <c r="A19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>60</v>
+      </c>
       <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>64</v>
+        <v>46</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="25"/>
     </row>
-    <row r="21" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>65</v>
+        <v>47</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>60</v>
@@ -1624,75 +1707,205 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="D22" s="25"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>60</v>
+        <v>88</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="D23" s="25"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>60</v>
+        <v>89</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="D24" s="25"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>91</v>
       </c>
       <c r="D25" s="25"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>60</v>
-      </c>
+      <c r="A26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="34"/>
       <c r="D26" s="25"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>70</v>
+        <v>50</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="C27" s="24" t="s">
         <v>60</v>
       </c>
       <c r="D27" s="25"/>
+    </row>
+    <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="25"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="25"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="25"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="25"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="25"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="25"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="25"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1700,8 +1913,19 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{923C8163-6824-431D-98E2-311941C9AEFA}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{2E696351-3B92-4BD4-A8FF-58936001B3E6}"/>
+    <hyperlink ref="C11" r:id="rId3" xr:uid="{261ACE80-712C-41A6-9602-72153CB341C4}"/>
+    <hyperlink ref="C22" r:id="rId4" xr:uid="{7C5F8D01-7EEE-4D77-8F69-32EE837D8A64}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{BE683ED5-23F1-4D99-9AE8-982815544417}"/>
+    <hyperlink ref="C24" r:id="rId6" xr:uid="{CA05BB4D-CC78-40D9-9749-CBA99EF1917D}"/>
+    <hyperlink ref="C25" r:id="rId7" xr:uid="{7E0971D8-E9F6-45B1-891D-4E8561623FD0}"/>
+    <hyperlink ref="C35" r:id="rId8" xr:uid="{7EE7B2D9-A9F2-4745-9184-86F528208286}"/>
+    <hyperlink ref="C36" r:id="rId9" xr:uid="{FE8580EA-6EA6-46C7-9A88-765106BF6057}"/>
+    <hyperlink ref="C37" r:id="rId10" xr:uid="{DEBAFCB4-D1B1-4F1A-8673-0166307A0641}"/>
+    <hyperlink ref="C38" r:id="rId11" xr:uid="{86F8D585-D04D-4C7F-8EE4-3D4890B3D16E}"/>
+    <hyperlink ref="C12" r:id="rId12" display="issue#4" xr:uid="{48910C8B-C055-42C1-813B-7F8DB65A380F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>